--- a/biology/Botanique/Hopea_ferrea/Hopea_ferrea.xlsx
+++ b/biology/Botanique/Hopea_ferrea/Hopea_ferrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hopea ferrea est une espèce de plantes du genre Hopea, arbre de la famille des Dipterocarpaceae. On le trouve au Vietnam, au Laos, au Cambodge, en Thaïlande et en Malaisie entre le niveau de la mer et 700 m d'altitude. Il mesure de 15 à 30 m[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hopea ferrea est une espèce de plantes du genre Hopea, arbre de la famille des Dipterocarpaceae. On le trouve au Vietnam, au Laos, au Cambodge, en Thaïlande et en Malaisie entre le niveau de la mer et 700 m d'altitude. Il mesure de 15 à 30 m.
 </t>
         </is>
       </c>
